--- a/아이템데이터.xlsx
+++ b/아이템데이터.xlsx
@@ -31,11 +31,14 @@
   <connection id="2" name="ItemSchema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Unity\project\nerdgame\ItemSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="3" name="ItemSchema2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Unity\project\nerdgame\ItemSchema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +190,9 @@
   <si>
     <t>얼굴마사지기를 사용하면 V라인이 될 수 있다던데 하나 사 봐?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earn</t>
   </si>
 </sst>
 </file>
@@ -232,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,9 +246,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -305,90 +308,138 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema2">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Root">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Item" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Korean" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="English" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Japanese" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Cost" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CostHp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CostUnlock" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Rank" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Info" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Need" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="NeedHp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="NeedPow" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="NeedInt" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="NeedLook" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="NeedCon" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="NeedPie" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="NeedArt" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="MaxHp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Hp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Pow" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Int" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Look" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Con" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Pie" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Art" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Earn" form="unqualified"/>
+                </xsd:sequence>
+                <xsd:attribute name="key" form="unqualified" type="xsd:string"/>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="3" Name="Root_맵" RootElement="Root" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="4" Name="Root_맵1" RootElement="Root" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="76" name="표76" displayName="표76" ref="A1:Y6" tableType="xml" totalsRowShown="0" connectionId="2">
-  <autoFilter ref="A1:Y6"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="76" name="표76" displayName="표76" ref="A1:Z6" tableType="xml" totalsRowShown="0" connectionId="3">
+  <autoFilter ref="A1:Z6"/>
+  <tableColumns count="26">
     <tableColumn id="1" uniqueName="key" name="key">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/@key" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/@key" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="Korean" name="Korean">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Korean" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Korean" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="English" name="English">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/English" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/English" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="Japanese" name="Japanese">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Japanese" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Japanese" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="Cost" name="Cost">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Cost" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Cost" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="CostHp" name="CostHp">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/CostHp" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/CostHp" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="CostUnlock" name="CostUnlock">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/CostUnlock" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/CostUnlock" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="Rank" name="Rank">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Rank" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Rank" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="Info" name="Info">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Info" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Info" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="Need" name="Need">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Need" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Need" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="NeedHp" name="NeedHp">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/NeedHp" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/NeedHp" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="NeedPow" name="NeedPow">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/NeedPow" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/NeedPow" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="NeedInt" name="NeedInt">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/NeedInt" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/NeedInt" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="14" uniqueName="NeedLook" name="NeedLook">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/NeedLook" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/NeedLook" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="15" uniqueName="NeedCon" name="NeedCon">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/NeedCon" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/NeedCon" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="16" uniqueName="NeedPie" name="NeedPie">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/NeedPie" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/NeedPie" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="17" uniqueName="NeedArt" name="NeedArt">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/NeedArt" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/NeedArt" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="18" uniqueName="MaxHp" name="MaxHp">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/MaxHp" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/MaxHp" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="19" uniqueName="Hp" name="Hp">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Hp" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Hp" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="20" uniqueName="Pow" name="Pow">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Pow" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Pow" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="21" uniqueName="Int" name="Int">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Int" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Int" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="22" uniqueName="Look" name="Look">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Look" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Look" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="23" uniqueName="Con" name="Con">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Con" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Con" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="24" uniqueName="Pie" name="Pie">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Pie" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Pie" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="25" uniqueName="Art" name="Art">
-      <xmlColumnPr mapId="3" xpath="/Root/Item/Art" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Art" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="26" uniqueName="Earn" name="Earn">
+      <xmlColumnPr mapId="4" xpath="/Root/Item/Earn" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -658,16 +709,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
@@ -690,9 +742,10 @@
     <col min="23" max="23" width="7.25" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -768,8 +821,11 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -807,98 +863,175 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
         <v>100</v>
       </c>
-      <c r="H3">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1">
         <v>20</v>
       </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U4">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1">
         <v>1</v>
       </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>100</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L5">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
         <v>10</v>
       </c>
-      <c r="T5">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
         <v>1</v>
       </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>1000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V6">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
         <v>1</v>
       </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
